--- a/web/admin/asset/download/new_template_block.xlsx
+++ b/web/admin/asset/download/new_template_block.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>stt</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Số sản phẩm mỗi tầng</t>
   </si>
   <si>
-    <t>Hình ảnh</t>
-  </si>
-  <si>
-    <t>Hình đại diện</t>
-  </si>
-  <si>
     <t>Hướng</t>
   </si>
   <si>
@@ -138,6 +132,18 @@
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit. Quae deserunt quia cupiditate nulla ipsum voluptas nihil neque maxime delectus, aliquid dolorum quaerat modi vero itaque. Voluptatibus beatae, ut velit explicabo modi voluptas corporis dolores!</t>
+  </si>
+  <si>
+    <t>Bộ sưu tập</t>
+  </si>
+  <si>
+    <t>Sơ đồ tầng dãy</t>
+  </si>
+  <si>
+    <t>Phối cảnh</t>
+  </si>
+  <si>
+    <t>Hình đại diện (1 hình duy nhất)</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,10 +199,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,15 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="18" style="2"/>
+    <col min="12" max="12" width="62.85546875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="18" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,133 +534,145 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
+      <c r="T2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
